--- a/Data/Fluids.xlsx
+++ b/Data/Fluids.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="98">
   <si>
     <t>Fluid</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>Dioxan</t>
+  </si>
+  <si>
+    <t>Drilling Mud (SG=1.62 t/cum)</t>
   </si>
   <si>
     <t>Ethyl acetate</t>
@@ -315,44 +318,44 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
   <fonts count="6">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
@@ -370,21 +373,21 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium"/>
       <right style="medium"/>
       <top style="medium"/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium">
         <color rgb="FFC0C0C0"/>
       </left>
@@ -401,64 +404,64 @@
     </border>
   </borders>
   <cellStyleXfs count="21">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="2" fontId="5" numFmtId="164" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="5" numFmtId="164" xfId="20">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Normal_Sheet1" xfId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Normal_Sheet1" xfId="20" builtinId="54" customBuiltin="true"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -466,12 +469,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G209" activeCellId="0" pane="topLeft" sqref="G209"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A90" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E96" activeCellId="0" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -481,7 +485,7 @@
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.53023255813953"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="26.95" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="26.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -498,7 +502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -515,7 +519,7 @@
         <v>105</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="3">
+    <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -532,7 +536,7 @@
         <v>148</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
@@ -549,7 +553,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -566,7 +570,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -583,7 +587,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -600,7 +604,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -617,7 +621,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -634,7 +638,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -651,7 +655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -668,7 +672,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>12</v>
       </c>
@@ -685,7 +689,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -702,7 +706,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -719,7 +723,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -736,7 +740,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
@@ -753,7 +757,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
@@ -770,7 +774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -787,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
         <v>16</v>
       </c>
@@ -804,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
@@ -821,7 +825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
@@ -838,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
@@ -855,7 +859,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -872,7 +876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="24">
+    <row r="24" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -889,7 +893,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="25">
+    <row r="25" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -906,7 +910,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="26">
+    <row r="26" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
         <v>18</v>
       </c>
@@ -923,7 +927,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
         <v>18</v>
       </c>
@@ -940,7 +944,7 @@
         <v>60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="28">
+    <row r="28" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
         <v>19</v>
       </c>
@@ -957,7 +961,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="29">
+    <row r="29" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
         <v>20</v>
       </c>
@@ -974,7 +978,7 @@
         <v>48</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="30">
+    <row r="30" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
         <v>21</v>
       </c>
@@ -991,7 +995,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="31">
+    <row r="31" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
         <v>22</v>
       </c>
@@ -1008,7 +1012,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="32">
+    <row r="32" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
         <v>22</v>
       </c>
@@ -1025,7 +1029,7 @@
         <v>8.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="33">
+    <row r="33" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
         <v>23</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="34">
+    <row r="34" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
         <v>23</v>
       </c>
@@ -1059,7 +1063,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="35">
+    <row r="35" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
         <v>23</v>
       </c>
@@ -1076,7 +1080,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="36">
+    <row r="36" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
         <v>24</v>
       </c>
@@ -1093,7 +1097,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="37">
+    <row r="37" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
         <v>25</v>
       </c>
@@ -1110,7 +1114,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="38">
+    <row r="38" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
         <v>26</v>
       </c>
@@ -1127,7 +1131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="39">
+    <row r="39" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
         <v>26</v>
       </c>
@@ -1144,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="40">
+    <row r="40" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
         <v>26</v>
       </c>
@@ -1161,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="41">
+    <row r="41" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
         <v>26</v>
       </c>
@@ -1178,7 +1182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="42">
+    <row r="42" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
         <v>27</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="43">
+    <row r="43" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
         <v>27</v>
       </c>
@@ -1212,7 +1216,7 @@
         <v>33</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="44">
+    <row r="44" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
         <v>27</v>
       </c>
@@ -1229,7 +1233,7 @@
         <v>48</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="45">
+    <row r="45" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
         <v>28</v>
       </c>
@@ -1246,7 +1250,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="46">
+    <row r="46" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="s">
         <v>28</v>
       </c>
@@ -1263,7 +1267,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="47">
+    <row r="47" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
         <v>29</v>
       </c>
@@ -1280,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="48">
+    <row r="48" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
         <v>29</v>
       </c>
@@ -1297,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="49">
+    <row r="49" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
         <v>29</v>
       </c>
@@ -1314,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="50">
+    <row r="50" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4" t="s">
         <v>29</v>
       </c>
@@ -1331,7 +1335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="51">
+    <row r="51" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
         <v>29</v>
       </c>
@@ -1348,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="52">
+    <row r="52" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="s">
         <v>30</v>
       </c>
@@ -1365,7 +1369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="53">
+    <row r="53" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="s">
         <v>30</v>
       </c>
@@ -1382,7 +1386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="54">
+    <row r="54" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
         <v>30</v>
       </c>
@@ -1399,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="55">
+    <row r="55" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
         <v>31</v>
       </c>
@@ -1416,7 +1420,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="56">
+    <row r="56" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="4" t="s">
         <v>31</v>
       </c>
@@ -1433,7 +1437,7 @@
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="57">
+    <row r="57" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
         <v>31</v>
       </c>
@@ -1450,7 +1454,7 @@
         <v>62</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="58">
+    <row r="58" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
         <v>31</v>
       </c>
@@ -1467,7 +1471,7 @@
         <v>87</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="59">
+    <row r="59" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
         <v>31</v>
       </c>
@@ -1484,7 +1488,7 @@
         <v>120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="60">
+    <row r="60" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
         <v>32</v>
       </c>
@@ -1501,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="61">
+    <row r="61" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
         <v>32</v>
       </c>
@@ -1518,7 +1522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="62">
+    <row r="62" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
         <v>32</v>
       </c>
@@ -1535,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="63">
+    <row r="63" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
         <v>33</v>
       </c>
@@ -1552,7 +1556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="64">
+    <row r="64" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
         <v>33</v>
       </c>
@@ -1569,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="65">
+    <row r="65" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
         <v>33</v>
       </c>
@@ -1586,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="66">
+    <row r="66" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
         <v>33</v>
       </c>
@@ -1603,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="67">
+    <row r="67" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
         <v>33</v>
       </c>
@@ -1620,7 +1624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="68">
+    <row r="68" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
         <v>33</v>
       </c>
@@ -1637,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="69">
+    <row r="69" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
         <v>33</v>
       </c>
@@ -1654,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="70">
+    <row r="70" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
         <v>34</v>
       </c>
@@ -1671,7 +1675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="71">
+    <row r="71" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
         <v>34</v>
       </c>
@@ -1688,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="72">
+    <row r="72" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
         <v>34</v>
       </c>
@@ -1705,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="73">
+    <row r="73" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="4" t="s">
         <v>34</v>
       </c>
@@ -1722,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="74">
+    <row r="74" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
         <v>34</v>
       </c>
@@ -1739,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="75">
+    <row r="75" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
         <v>34</v>
       </c>
@@ -1756,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="76">
+    <row r="76" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
         <v>34</v>
       </c>
@@ -1773,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="77">
+    <row r="77" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
         <v>35</v>
       </c>
@@ -1790,7 +1794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="78">
+    <row r="78" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
         <v>35</v>
       </c>
@@ -1807,7 +1811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="79">
+    <row r="79" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
         <v>35</v>
       </c>
@@ -1824,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="80">
+    <row r="80" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
         <v>35</v>
       </c>
@@ -1841,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="81">
+    <row r="81" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
         <v>35</v>
       </c>
@@ -1858,7 +1862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="82">
+    <row r="82" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
         <v>35</v>
       </c>
@@ -1875,7 +1879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="83">
+    <row r="83" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
         <v>35</v>
       </c>
@@ -1892,7 +1896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="84">
+    <row r="84" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
         <v>36</v>
       </c>
@@ -1909,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="85">
+    <row r="85" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
         <v>36</v>
       </c>
@@ -1926,7 +1930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="86">
+    <row r="86" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
         <v>36</v>
       </c>
@@ -1943,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="87">
+    <row r="87" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
         <v>36</v>
       </c>
@@ -1960,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="88">
+    <row r="88" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
         <v>36</v>
       </c>
@@ -1977,7 +1981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="89">
+    <row r="89" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
         <v>36</v>
       </c>
@@ -1994,7 +1998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="90">
+    <row r="90" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
         <v>36</v>
       </c>
@@ -2011,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="91">
+    <row r="91" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="s">
         <v>37</v>
       </c>
@@ -2028,7 +2032,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="92">
+    <row r="92" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
         <v>38</v>
       </c>
@@ -2045,7 +2049,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="93">
+    <row r="93" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
         <v>39</v>
       </c>
@@ -2062,7 +2066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="94">
+    <row r="94" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
         <v>40</v>
       </c>
@@ -2079,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="95">
+    <row r="95" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
         <v>41</v>
       </c>
@@ -2087,16 +2091,16 @@
         <v>20</v>
       </c>
       <c r="C95" s="4" t="n">
-        <v>0.51</v>
+        <v>0.216</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>0.905</v>
+        <v>1.62</v>
       </c>
       <c r="E95" s="4" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="96">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
         <v>42</v>
       </c>
@@ -2104,67 +2108,67 @@
         <v>20</v>
       </c>
       <c r="C96" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D96" s="4" t="n">
+        <v>0.905</v>
+      </c>
+      <c r="E96" s="4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C97" s="4" t="n">
         <v>1.51</v>
       </c>
-      <c r="D96" s="4" t="n">
+      <c r="D97" s="4" t="n">
         <v>0.772</v>
       </c>
-      <c r="E96" s="4" t="n">
+      <c r="E97" s="4" t="n">
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="97">
-      <c r="A97" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B97" s="4" t="n">
+    <row r="98" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A98" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B98" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="C97" s="4" t="n">
+      <c r="C98" s="4" t="n">
         <v>1.32</v>
       </c>
-      <c r="D97" s="4" t="n">
+      <c r="D98" s="4" t="n">
         <v>0.754</v>
       </c>
-      <c r="E97" s="4" t="n">
+      <c r="E98" s="4" t="n">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="98">
-      <c r="A98" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B98" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="C98" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="D98" s="4" t="n">
-        <v>0.737</v>
-      </c>
-      <c r="E98" s="4" t="n">
-        <v>20.7</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="99">
+    <row r="99" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B99" s="4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C99" s="4" t="n">
-        <v>2.3</v>
+        <v>1.16</v>
       </c>
       <c r="D99" s="4" t="n">
-        <v>0.93</v>
+        <v>0.737</v>
       </c>
       <c r="E99" s="4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="100">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
         <v>44</v>
       </c>
@@ -2172,84 +2176,84 @@
         <v>20</v>
       </c>
       <c r="C100" s="4" t="n">
-        <v>18</v>
+        <v>2.3</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>1.112</v>
+        <v>0.93</v>
       </c>
       <c r="E100" s="4" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="101">
+    <row r="101" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B101" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C101" s="4" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>1.104</v>
+        <v>1.112</v>
       </c>
       <c r="E101" s="4" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="102">
+    <row r="102" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B102" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C102" s="4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="D102" s="4" t="n">
+        <v>1.104</v>
+      </c>
+      <c r="E102" s="4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C103" s="4" t="n">
         <v>1.5</v>
       </c>
-      <c r="D102" s="4" t="n">
+      <c r="D103" s="4" t="n">
         <v>1.22</v>
       </c>
-      <c r="E102" s="4" t="n">
+      <c r="E103" s="4" t="n">
         <v>5.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="103">
-      <c r="A103" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B103" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="C103" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="D103" s="4" t="n">
-        <v>1.208</v>
-      </c>
-      <c r="E103" s="4" t="n">
-        <v>8.7</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="104">
+    <row r="104" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B104" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C104" s="4" t="n">
-        <v>6</v>
+        <v>1.38</v>
       </c>
       <c r="D104" s="4" t="n">
-        <v>0.85</v>
+        <v>1.208</v>
       </c>
       <c r="E104" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="105">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
         <v>47</v>
       </c>
@@ -2257,16 +2261,16 @@
         <v>20</v>
       </c>
       <c r="C105" s="4" t="n">
-        <v>16.5</v>
+        <v>6</v>
       </c>
       <c r="D105" s="4" t="n">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="E105" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="106">
+    <row r="106" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
         <v>48</v>
       </c>
@@ -2274,16 +2278,16 @@
         <v>20</v>
       </c>
       <c r="C106" s="4" t="n">
-        <v>520</v>
+        <v>16.5</v>
       </c>
       <c r="D106" s="4" t="n">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="E106" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="107">
+    <row r="107" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
         <v>49</v>
       </c>
@@ -2291,7 +2295,7 @@
         <v>20</v>
       </c>
       <c r="C107" s="4" t="n">
-        <v>8000</v>
+        <v>520</v>
       </c>
       <c r="D107" s="4" t="n">
         <v>0.99</v>
@@ -2300,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="108">
+    <row r="108" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
         <v>50</v>
       </c>
@@ -2308,50 +2312,50 @@
         <v>20</v>
       </c>
       <c r="C108" s="4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D108" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E108" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B109" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C109" s="4" t="n">
         <v>1.45</v>
       </c>
-      <c r="D108" s="4" t="n">
+      <c r="D109" s="4" t="n">
         <v>1.16</v>
       </c>
-      <c r="E108" s="4" t="n">
+      <c r="E109" s="4" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="109">
-      <c r="A109" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B109" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="C109" s="4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="D109" s="4" t="n">
-        <v>1.149</v>
-      </c>
-      <c r="E109" s="4" t="n">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="110">
+    <row r="110" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B110" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C110" s="4" t="n">
-        <v>3000</v>
+        <v>1.25</v>
       </c>
       <c r="D110" s="4" t="n">
-        <v>0.905</v>
+        <v>1.149</v>
       </c>
       <c r="E110" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="111">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
         <v>52</v>
       </c>
@@ -2359,237 +2363,237 @@
         <v>20</v>
       </c>
       <c r="C111" s="4" t="n">
-        <v>1183</v>
+        <v>3000</v>
       </c>
       <c r="D111" s="4" t="n">
-        <v>1.261</v>
+        <v>0.905</v>
       </c>
       <c r="E111" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="112">
+    <row r="112" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B112" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C112" s="4" t="n">
+        <v>1183</v>
+      </c>
+      <c r="D112" s="4" t="n">
+        <v>1.261</v>
+      </c>
+      <c r="E112" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B113" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" s="4" t="n">
         <v>0.74</v>
       </c>
-      <c r="D112" s="4" t="n">
+      <c r="D113" s="4" t="n">
         <v>0.702</v>
       </c>
-      <c r="E112" s="4" t="n">
+      <c r="E113" s="4" t="n">
         <v>13.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="113">
-      <c r="A113" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B113" s="4" t="n">
+    <row r="114" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B114" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C113" s="4" t="n">
+      <c r="C114" s="4" t="n">
         <v>0.66</v>
       </c>
-      <c r="D113" s="4" t="n">
+      <c r="D114" s="4" t="n">
         <v>0.692</v>
       </c>
-      <c r="E113" s="4" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="114">
-      <c r="A114" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B114" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="C114" s="4" t="n">
+      <c r="E114" s="4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B115" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C115" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="D114" s="4" t="n">
+      <c r="D115" s="4" t="n">
         <v>0.682</v>
       </c>
-      <c r="E114" s="4" t="n">
+      <c r="E115" s="4" t="n">
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="115">
-      <c r="A115" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B115" s="4" t="n">
+    <row r="116" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A116" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B116" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="C115" s="4" t="n">
+      <c r="C116" s="4" t="n">
         <v>0.55</v>
       </c>
-      <c r="D115" s="4" t="n">
+      <c r="D116" s="4" t="n">
         <v>0.671</v>
       </c>
-      <c r="E115" s="4" t="n">
+      <c r="E116" s="4" t="n">
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="116">
-      <c r="A116" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B116" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="C116" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="D116" s="4" t="n">
-        <v>0.661</v>
-      </c>
-      <c r="E116" s="4" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="117">
+    <row r="117" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
         <v>54</v>
       </c>
       <c r="B117" s="4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C117" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="D117" s="4" t="n">
+        <v>0.661</v>
+      </c>
+      <c r="E117" s="4" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B118" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" s="4" t="n">
         <v>0.62</v>
       </c>
-      <c r="D117" s="4" t="n">
+      <c r="D118" s="4" t="n">
         <v>0.678</v>
       </c>
-      <c r="E117" s="4" t="n">
+      <c r="E118" s="4" t="n">
         <v>13.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="118">
-      <c r="A118" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B118" s="4" t="n">
+    <row r="119" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B119" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C118" s="4" t="n">
+      <c r="C119" s="4" t="n">
         <v>0.57</v>
       </c>
-      <c r="D118" s="4" t="n">
+      <c r="D119" s="4" t="n">
         <v>0.668</v>
       </c>
-      <c r="E118" s="4" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="119">
-      <c r="A119" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B119" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="C119" s="4" t="n">
+      <c r="E119" s="4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B120" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C120" s="4" t="n">
         <v>0.51</v>
       </c>
-      <c r="D119" s="4" t="n">
+      <c r="D120" s="4" t="n">
         <v>0.658</v>
       </c>
-      <c r="E119" s="4" t="n">
+      <c r="E120" s="4" t="n">
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="120">
-      <c r="A120" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B120" s="4" t="n">
+    <row r="121" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B121" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="C120" s="4" t="n">
+      <c r="C121" s="4" t="n">
         <v>0.45</v>
       </c>
-      <c r="D120" s="4" t="n">
+      <c r="D121" s="4" t="n">
         <v>0.649</v>
       </c>
-      <c r="E120" s="4" t="n">
+      <c r="E121" s="4" t="n">
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="121">
-      <c r="A121" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B121" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="C121" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="D121" s="4" t="n">
-        <v>0.639</v>
-      </c>
-      <c r="E121" s="4" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="122">
+    <row r="122" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B122" s="4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C122" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D122" s="4" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="E122" s="4" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B123" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C123" s="4" t="n">
         <v>2.4</v>
       </c>
-      <c r="D122" s="4" t="n">
+      <c r="D123" s="4" t="n">
         <v>0.804</v>
-      </c>
-      <c r="E122" s="4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="123">
-      <c r="A123" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B123" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="C123" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="D123" s="4" t="n">
-        <v>0.78</v>
       </c>
       <c r="E123" s="4" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="124">
+    <row r="124" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="4" t="s">
         <v>56</v>
       </c>
       <c r="B124" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C124" s="4" t="n">
-        <v>47</v>
+        <v>1.85</v>
       </c>
       <c r="D124" s="4" t="n">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="E124" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="125">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
         <v>57</v>
       </c>
@@ -2600,13 +2604,13 @@
         <v>47</v>
       </c>
       <c r="D125" s="4" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="E125" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="126">
+    <row r="126" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
         <v>58</v>
       </c>
@@ -2614,16 +2618,16 @@
         <v>20</v>
       </c>
       <c r="C126" s="4" t="n">
-        <v>850</v>
+        <v>47</v>
       </c>
       <c r="D126" s="4" t="n">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="E126" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="127">
+    <row r="127" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
         <v>59</v>
       </c>
@@ -2631,16 +2635,16 @@
         <v>20</v>
       </c>
       <c r="C127" s="4" t="n">
-        <v>0.119</v>
+        <v>850</v>
       </c>
       <c r="D127" s="4" t="n">
-        <v>13.57</v>
+        <v>0.94</v>
       </c>
       <c r="E127" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="128">
+    <row r="128" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
         <v>60</v>
       </c>
@@ -2648,101 +2652,101 @@
         <v>20</v>
       </c>
       <c r="C128" s="4" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="D128" s="4" t="n">
+        <v>13.57</v>
+      </c>
+      <c r="E128" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B129" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C129" s="4" t="n">
         <v>0.44</v>
       </c>
-      <c r="D128" s="4" t="n">
+      <c r="D129" s="4" t="n">
         <v>0.959</v>
       </c>
-      <c r="E128" s="4" t="n">
+      <c r="E129" s="4" t="n">
         <v>48</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="129">
-      <c r="A129" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B129" s="4" t="n">
+    <row r="130" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B130" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="C129" s="4" t="n">
+      <c r="C130" s="4" t="n">
         <v>0.39</v>
       </c>
-      <c r="D129" s="4" t="n">
+      <c r="D130" s="4" t="n">
         <v>0.937</v>
       </c>
-      <c r="E129" s="4" t="n">
+      <c r="E130" s="4" t="n">
         <v>68</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="130">
-      <c r="A130" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B130" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="C130" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="D130" s="4" t="n">
-        <v>0.916</v>
-      </c>
-      <c r="E130" s="4" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="131">
+    <row r="131" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B131" s="4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C131" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="D131" s="4" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="E131" s="4" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B132" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" s="4" t="n">
         <v>1.04</v>
       </c>
-      <c r="D131" s="4" t="n">
+      <c r="D132" s="4" t="n">
         <v>0.81</v>
       </c>
-      <c r="E131" s="4" t="n">
+      <c r="E132" s="4" t="n">
         <v>13.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="132">
-      <c r="A132" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B132" s="4" t="n">
+    <row r="133" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B133" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C132" s="4" t="n">
+      <c r="C133" s="4" t="n">
         <v>0.855</v>
       </c>
-      <c r="D132" s="4" t="n">
+      <c r="D133" s="4" t="n">
         <v>0.801</v>
       </c>
-      <c r="E132" s="4" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="133">
-      <c r="A133" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B133" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="C133" s="4" t="n">
-        <v>0.745</v>
-      </c>
-      <c r="D133" s="4" t="n">
-        <v>0.792</v>
-      </c>
       <c r="E133" s="4" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="134">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
         <v>62</v>
       </c>
@@ -2750,16 +2754,16 @@
         <v>20</v>
       </c>
       <c r="C134" s="4" t="n">
-        <v>1.6</v>
+        <v>0.745</v>
       </c>
       <c r="D134" s="4" t="n">
-        <v>0.975</v>
+        <v>0.792</v>
       </c>
       <c r="E134" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="135">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
         <v>63</v>
       </c>
@@ -2767,16 +2771,16 @@
         <v>20</v>
       </c>
       <c r="C135" s="4" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="D135" s="4" t="n">
-        <v>1.326</v>
+        <v>0.975</v>
       </c>
       <c r="E135" s="4" t="n">
-        <v>72</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
         <v>64</v>
       </c>
@@ -2784,16 +2788,16 @@
         <v>20</v>
       </c>
       <c r="C136" s="4" t="n">
-        <v>1.13</v>
+        <v>0.9</v>
       </c>
       <c r="D136" s="4" t="n">
-        <v>1.035</v>
+        <v>1.326</v>
       </c>
       <c r="E136" s="4" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="137">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="4" t="s">
         <v>65</v>
       </c>
@@ -2801,186 +2805,186 @@
         <v>20</v>
       </c>
       <c r="C137" s="4" t="n">
-        <v>1.67</v>
+        <v>1.13</v>
       </c>
       <c r="D137" s="4" t="n">
-        <v>1.203</v>
+        <v>1.035</v>
       </c>
       <c r="E137" s="4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="138">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B138" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C138" s="4" t="n">
-        <v>1.35</v>
+        <v>1.67</v>
       </c>
       <c r="D138" s="4" t="n">
-        <v>0.733</v>
+        <v>1.203</v>
       </c>
       <c r="E138" s="4" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="139">
+    <row r="139" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B139" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C139" s="4" t="n">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="D139" s="4" t="n">
-        <v>0.717</v>
+        <v>0.733</v>
       </c>
       <c r="E139" s="4" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="140">
+    <row r="140" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B140" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C140" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" s="4" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="E140" s="4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A141" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B141" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="C140" s="4" t="n">
+      <c r="C141" s="4" t="n">
         <v>0.89</v>
       </c>
-      <c r="D140" s="4" t="n">
+      <c r="D141" s="4" t="n">
         <v>0.709</v>
       </c>
-      <c r="E140" s="4" t="n">
+      <c r="E141" s="4" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="141">
-      <c r="A141" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B141" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="C141" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="D141" s="4" t="n">
-        <v>0.701</v>
-      </c>
-      <c r="E141" s="4" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="142">
+    <row r="142" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B142" s="4" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C142" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D142" s="4" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="E142" s="4" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A143" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B143" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" s="4" t="n">
         <v>1.05</v>
       </c>
-      <c r="D142" s="4" t="n">
+      <c r="D143" s="4" t="n">
         <v>0.719</v>
-      </c>
-      <c r="E142" s="4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="143">
-      <c r="A143" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B143" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C143" s="4" t="n">
-        <v>0.935</v>
-      </c>
-      <c r="D143" s="4" t="n">
-        <v>0.711</v>
       </c>
       <c r="E143" s="4" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="144">
+    <row r="144" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B144" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C144" s="4" t="n">
-        <v>0.805</v>
+        <v>0.935</v>
       </c>
       <c r="D144" s="4" t="n">
-        <v>0.702</v>
+        <v>0.711</v>
       </c>
       <c r="E144" s="4" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="145">
+    <row r="145" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B145" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C145" s="4" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="D145" s="4" t="n">
+        <v>0.702</v>
+      </c>
+      <c r="E145" s="4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A146" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B146" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="C145" s="4" t="n">
+      <c r="C146" s="4" t="n">
         <v>0.72</v>
       </c>
-      <c r="D145" s="4" t="n">
+      <c r="D146" s="4" t="n">
         <v>0.694</v>
       </c>
-      <c r="E145" s="4" t="n">
+      <c r="E146" s="4" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="146">
-      <c r="A146" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B146" s="4" t="n">
-        <v>40</v>
-      </c>
-      <c r="C146" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="D146" s="4" t="n">
-        <v>0.685</v>
-      </c>
-      <c r="E146" s="4" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="147">
+    <row r="147" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B147" s="4" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="C147" s="4" t="n">
-        <v>115</v>
+        <v>0.64</v>
       </c>
       <c r="D147" s="4" t="n">
-        <v>0.87</v>
+        <v>0.685</v>
       </c>
       <c r="E147" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="148">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
         <v>69</v>
       </c>
@@ -2988,16 +2992,16 @@
         <v>20</v>
       </c>
       <c r="C148" s="4" t="n">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D148" s="4" t="n">
-        <v>0.875</v>
+        <v>0.87</v>
       </c>
       <c r="E148" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="149">
+    <row r="149" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
         <v>70</v>
       </c>
@@ -3005,16 +3009,16 @@
         <v>20</v>
       </c>
       <c r="C149" s="4" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="D149" s="4" t="n">
-        <v>0.885</v>
+        <v>0.875</v>
       </c>
       <c r="E149" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="150">
+    <row r="150" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
         <v>71</v>
       </c>
@@ -3022,16 +3026,16 @@
         <v>20</v>
       </c>
       <c r="C150" s="4" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="D150" s="4" t="n">
-        <v>0.89</v>
+        <v>0.885</v>
       </c>
       <c r="E150" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="151">
+    <row r="151" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
         <v>72</v>
       </c>
@@ -3039,16 +3043,16 @@
         <v>20</v>
       </c>
       <c r="C151" s="4" t="n">
-        <v>900</v>
+        <v>350</v>
       </c>
       <c r="D151" s="4" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="E151" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="152">
+    <row r="152" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
         <v>73</v>
       </c>
@@ -3056,16 +3060,16 @@
         <v>20</v>
       </c>
       <c r="C152" s="4" t="n">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="D152" s="4" t="n">
-        <v>0.902</v>
+        <v>0.9</v>
       </c>
       <c r="E152" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="153">
+    <row r="153" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
         <v>74</v>
       </c>
@@ -3073,16 +3077,16 @@
         <v>20</v>
       </c>
       <c r="C153" s="4" t="n">
-        <v>91.5</v>
+        <v>950</v>
       </c>
       <c r="D153" s="4" t="n">
-        <v>0.91</v>
+        <v>0.902</v>
       </c>
       <c r="E153" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="154">
+    <row r="154" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
         <v>75</v>
       </c>
@@ -3090,254 +3094,254 @@
         <v>20</v>
       </c>
       <c r="C154" s="4" t="n">
+        <v>91.5</v>
+      </c>
+      <c r="D154" s="4" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E154" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B155" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C155" s="4" t="n">
         <v>2.4</v>
       </c>
-      <c r="D154" s="4" t="n">
+      <c r="D155" s="4" t="n">
         <v>0.804</v>
-      </c>
-      <c r="E154" s="4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="155">
-      <c r="A155" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B155" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="C155" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="D155" s="4" t="n">
-        <v>0.78</v>
       </c>
       <c r="E155" s="4" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="156">
+    <row r="156" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
         <v>76</v>
       </c>
       <c r="B156" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C156" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="D156" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E156" s="4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A157" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B157" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C157" s="4" t="n">
         <v>0.44</v>
       </c>
-      <c r="D156" s="4" t="n">
+      <c r="D157" s="4" t="n">
         <v>0.646</v>
       </c>
-      <c r="E156" s="4" t="n">
+      <c r="E157" s="4" t="n">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="157">
-      <c r="A157" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B157" s="4" t="n">
+    <row r="158" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A158" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B158" s="4" t="n">
         <v>10</v>
       </c>
-      <c r="C157" s="4" t="n">
+      <c r="C158" s="4" t="n">
         <v>0.39</v>
       </c>
-      <c r="D157" s="4" t="n">
+      <c r="D158" s="4" t="n">
         <v>0.636</v>
       </c>
-      <c r="E157" s="4" t="n">
+      <c r="E158" s="4" t="n">
         <v>50</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="158">
-      <c r="A158" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B158" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="C158" s="4" t="n">
+    <row r="159" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A159" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B159" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C159" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="D158" s="4" t="n">
+      <c r="D159" s="4" t="n">
         <v>0.626</v>
       </c>
-      <c r="E158" s="4" t="n">
+      <c r="E159" s="4" t="n">
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="159">
-      <c r="A159" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B159" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="C159" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="D159" s="4" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="E159" s="4" t="n">
-        <v>101</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="160">
+    <row r="160" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
         <v>77</v>
       </c>
       <c r="B160" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C160" s="4" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D160" s="4" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="E160" s="4" t="n">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B161" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C161" s="4" t="n">
         <v>11.3</v>
       </c>
-      <c r="D160" s="4" t="n">
+      <c r="D161" s="4" t="n">
         <v>1.078</v>
-      </c>
-      <c r="E160" s="4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="161">
-      <c r="A161" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B161" s="4" t="n">
-        <v>30</v>
-      </c>
-      <c r="C161" s="4" t="n">
-        <v>9.7</v>
-      </c>
-      <c r="D161" s="4" t="n">
-        <v>1.069</v>
       </c>
       <c r="E161" s="4" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="162">
+    <row r="162" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B162" s="4" t="n">
+        <v>30</v>
+      </c>
+      <c r="C162" s="4" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="D162" s="4" t="n">
+        <v>1.069</v>
+      </c>
+      <c r="E162" s="4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B163" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="C162" s="4" t="n">
+      <c r="C163" s="4" t="n">
         <v>7.95</v>
       </c>
-      <c r="D162" s="4" t="n">
+      <c r="D163" s="4" t="n">
         <v>1.059</v>
       </c>
-      <c r="E162" s="4" t="n">
+      <c r="E163" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="163">
-      <c r="A163" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B163" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="C163" s="4" t="n">
-        <v>6.15</v>
-      </c>
-      <c r="D163" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="E163" s="4" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="164">
+    <row r="164" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
         <v>78</v>
       </c>
       <c r="B164" s="4" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C164" s="4" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="D164" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E164" s="4" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B165" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C165" s="4" t="n">
         <v>2.8</v>
       </c>
-      <c r="D164" s="4" t="n">
+      <c r="D165" s="4" t="n">
         <v>0.804</v>
       </c>
-      <c r="E164" s="4" t="n">
+      <c r="E165" s="4" t="n">
         <v>2.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="165">
-      <c r="A165" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B165" s="4" t="n">
+    <row r="166" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A166" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B166" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="C165" s="4" t="n">
+      <c r="C166" s="4" t="n">
         <v>2.2</v>
       </c>
-      <c r="D165" s="4" t="n">
+      <c r="D166" s="4" t="n">
         <v>0.795</v>
       </c>
-      <c r="E165" s="4" t="n">
+      <c r="E166" s="4" t="n">
         <v>4.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="166">
-      <c r="A166" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B166" s="4" t="n">
+    <row r="167" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B167" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="C166" s="4" t="n">
+      <c r="C167" s="4" t="n">
         <v>1.7</v>
       </c>
-      <c r="D166" s="4" t="n">
+      <c r="D167" s="4" t="n">
         <v>0.786</v>
       </c>
-      <c r="E166" s="4" t="n">
+      <c r="E167" s="4" t="n">
         <v>7.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="167">
-      <c r="A167" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B167" s="4" t="n">
-        <v>50</v>
-      </c>
-      <c r="C167" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="D167" s="4" t="n">
-        <v>0.777</v>
-      </c>
-      <c r="E167" s="4" t="n">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="168">
+    <row r="168" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B168" s="4" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C168" s="4" t="n">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="D168" s="4" t="n">
-        <v>0.99</v>
+        <v>0.777</v>
       </c>
       <c r="E168" s="4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="169">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
         <v>80</v>
       </c>
@@ -3345,16 +3349,16 @@
         <v>20</v>
       </c>
       <c r="C169" s="4" t="n">
-        <v>54</v>
+        <v>1.13</v>
       </c>
       <c r="D169" s="4" t="n">
-        <v>1.038</v>
+        <v>0.99</v>
       </c>
       <c r="E169" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="170">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
         <v>81</v>
       </c>
@@ -3362,220 +3366,220 @@
         <v>20</v>
       </c>
       <c r="C170" s="4" t="n">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="D170" s="4" t="n">
-        <v>0.92</v>
+        <v>1.038</v>
       </c>
       <c r="E170" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="171">
+    <row r="171" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
         <v>82</v>
       </c>
       <c r="B171" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C171" s="4" t="n">
+        <v>178</v>
+      </c>
+      <c r="D171" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E171" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A172" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B172" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" s="4" t="n">
         <v>1.774</v>
-      </c>
-      <c r="D171" s="4" t="n">
-        <v>1.028</v>
-      </c>
-      <c r="E171" s="4" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="172">
-      <c r="A172" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B172" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C172" s="4" t="n">
-        <v>1.346</v>
       </c>
       <c r="D172" s="4" t="n">
         <v>1.028</v>
       </c>
       <c r="E172" s="4" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A173" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B173" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C173" s="4" t="n">
+        <v>1.346</v>
+      </c>
+      <c r="D173" s="4" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="E173" s="4" t="n">
         <v>1.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="173">
-      <c r="A173" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B173" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="C173" s="4" t="n">
+    <row r="174" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A174" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B174" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C174" s="4" t="n">
         <v>1.044</v>
       </c>
-      <c r="D173" s="4" t="n">
+      <c r="D174" s="4" t="n">
         <v>1.025</v>
       </c>
-      <c r="E173" s="4" t="n">
+      <c r="E174" s="4" t="n">
         <v>2.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="174">
-      <c r="A174" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B174" s="4" t="n">
+    <row r="175" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A175" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B175" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="C174" s="4" t="n">
+      <c r="C175" s="4" t="n">
         <v>0.822</v>
       </c>
-      <c r="D174" s="4" t="n">
+      <c r="D175" s="4" t="n">
         <v>1.023</v>
       </c>
-      <c r="E174" s="4" t="n">
+      <c r="E175" s="4" t="n">
         <v>4.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="175">
-      <c r="A175" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B175" s="4" t="n">
+    <row r="176" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B176" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="C175" s="4" t="n">
+      <c r="C176" s="4" t="n">
         <v>0.659</v>
       </c>
-      <c r="D175" s="4" t="n">
+      <c r="D176" s="4" t="n">
         <v>1.019</v>
       </c>
-      <c r="E175" s="4" t="n">
+      <c r="E176" s="4" t="n">
         <v>7.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="176">
-      <c r="A176" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B176" s="4" t="n">
+    <row r="177" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B177" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="C176" s="4" t="n">
+      <c r="C177" s="4" t="n">
         <v>0.536</v>
       </c>
-      <c r="D176" s="4" t="n">
+      <c r="D177" s="4" t="n">
         <v>1.015</v>
       </c>
-      <c r="E176" s="4" t="n">
+      <c r="E177" s="4" t="n">
         <v>12.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="177">
-      <c r="A177" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B177" s="4" t="n">
+    <row r="178" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B178" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="C177" s="4" t="n">
+      <c r="C178" s="4" t="n">
         <v>0.442</v>
       </c>
-      <c r="D177" s="4" t="n">
+      <c r="D178" s="4" t="n">
         <v>1.01</v>
       </c>
-      <c r="E177" s="4" t="n">
+      <c r="E178" s="4" t="n">
         <v>19.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="178">
-      <c r="A178" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B178" s="4" t="n">
+    <row r="179" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B179" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="C178" s="4" t="n">
+      <c r="C179" s="4" t="n">
         <v>0.369</v>
       </c>
-      <c r="D178" s="4" t="n">
+      <c r="D179" s="4" t="n">
         <v>1.004</v>
       </c>
-      <c r="E178" s="4" t="n">
+      <c r="E179" s="4" t="n">
         <v>31.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="179">
-      <c r="A179" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B179" s="4" t="n">
+    <row r="180" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B180" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="C179" s="4" t="n">
+      <c r="C180" s="4" t="n">
         <v>0.311</v>
       </c>
-      <c r="D179" s="4" t="n">
+      <c r="D180" s="4" t="n">
         <v>0.998</v>
       </c>
-      <c r="E179" s="4" t="n">
+      <c r="E180" s="4" t="n">
         <v>47.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="180">
-      <c r="A180" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B180" s="4" t="n">
+    <row r="181" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B181" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="C180" s="4" t="n">
+      <c r="C181" s="4" t="n">
         <v>0.265</v>
       </c>
-      <c r="D180" s="4" t="n">
+      <c r="D181" s="4" t="n">
         <v>0.991</v>
       </c>
-      <c r="E180" s="4" t="n">
+      <c r="E181" s="4" t="n">
         <v>70.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="181">
-      <c r="A181" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B181" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C181" s="4" t="n">
-        <v>0.229</v>
-      </c>
-      <c r="D181" s="4" t="n">
-        <v>0.984</v>
-      </c>
-      <c r="E181" s="4" t="n">
-        <v>101.3</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="182">
+    <row r="182" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B182" s="4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C182" s="4" t="n">
-        <v>2.4</v>
+        <v>0.229</v>
       </c>
       <c r="D182" s="4" t="n">
-        <v>1.19</v>
+        <v>0.984</v>
       </c>
       <c r="E182" s="4" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="183">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="4" t="s">
         <v>84</v>
       </c>
@@ -3583,16 +3587,16 @@
         <v>20</v>
       </c>
       <c r="C183" s="4" t="n">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="D183" s="4" t="n">
-        <v>1.226</v>
+        <v>1.19</v>
       </c>
       <c r="E183" s="4" t="n">
         <v>2.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="184">
+    <row r="184" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="4" t="s">
         <v>85</v>
       </c>
@@ -3600,16 +3604,16 @@
         <v>20</v>
       </c>
       <c r="C184" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D184" s="4" t="n">
-        <v>1.33</v>
+        <v>1.226</v>
       </c>
       <c r="E184" s="4" t="n">
         <v>2.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="185">
+    <row r="185" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="4" t="s">
         <v>86</v>
       </c>
@@ -3617,50 +3621,50 @@
         <v>20</v>
       </c>
       <c r="C185" s="4" t="n">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="D185" s="4" t="n">
-        <v>0.926</v>
+        <v>1.33</v>
       </c>
       <c r="E185" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="186">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B186" s="4" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C186" s="4" t="n">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D186" s="4" t="n">
-        <v>1.35</v>
+        <v>0.926</v>
       </c>
       <c r="E186" s="4" t="n">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="187">
+    <row r="187" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
         <v>88</v>
       </c>
       <c r="B187" s="4" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C187" s="4" t="n">
-        <v>0.9</v>
+        <v>22</v>
       </c>
       <c r="D187" s="4" t="n">
-        <v>0.926</v>
+        <v>1.35</v>
       </c>
       <c r="E187" s="4" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
         <v>89</v>
       </c>
@@ -3668,16 +3672,16 @@
         <v>20</v>
       </c>
       <c r="C188" s="4" t="n">
-        <v>14.6</v>
+        <v>0.9</v>
       </c>
       <c r="D188" s="4" t="n">
-        <v>1.839</v>
+        <v>0.926</v>
       </c>
       <c r="E188" s="4" t="n">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="189">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
         <v>90</v>
       </c>
@@ -3685,16 +3689,16 @@
         <v>20</v>
       </c>
       <c r="C189" s="4" t="n">
-        <v>1.1</v>
+        <v>14.6</v>
       </c>
       <c r="D189" s="4" t="n">
-        <v>1.593</v>
+        <v>1.839</v>
       </c>
       <c r="E189" s="4" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="190">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
         <v>91</v>
       </c>
@@ -3702,16 +3706,16 @@
         <v>20</v>
       </c>
       <c r="C190" s="4" t="n">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="D190" s="4" t="n">
-        <v>1.621</v>
+        <v>1.593</v>
       </c>
       <c r="E190" s="4" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="191">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
         <v>92</v>
       </c>
@@ -3719,101 +3723,101 @@
         <v>20</v>
       </c>
       <c r="C191" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="D191" s="4" t="n">
+        <v>1.621</v>
+      </c>
+      <c r="E191" s="4" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A192" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B192" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C192" s="4" t="n">
         <v>0.68</v>
       </c>
-      <c r="D191" s="4" t="n">
+      <c r="D192" s="4" t="n">
         <v>0.867</v>
       </c>
-      <c r="E191" s="4" t="n">
+      <c r="E192" s="4" t="n">
         <v>5.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="192">
-      <c r="A192" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B192" s="4" t="n">
+    <row r="193" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A193" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B193" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="C192" s="4" t="n">
+      <c r="C193" s="4" t="n">
         <v>0.61</v>
       </c>
-      <c r="D192" s="4" t="n">
+      <c r="D193" s="4" t="n">
         <v>0.858</v>
       </c>
-      <c r="E192" s="4" t="n">
+      <c r="E193" s="4" t="n">
         <v>8.7</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="193">
-      <c r="A193" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B193" s="4" t="n">
+    <row r="194" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A194" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B194" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="C193" s="4" t="n">
+      <c r="C194" s="4" t="n">
         <v>0.55</v>
       </c>
-      <c r="D193" s="4" t="n">
+      <c r="D194" s="4" t="n">
         <v>0.849</v>
       </c>
-      <c r="E193" s="4" t="n">
+      <c r="E194" s="4" t="n">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="194">
-      <c r="A194" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B194" s="4" t="n">
+    <row r="195" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A195" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B195" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="C194" s="4" t="n">
+      <c r="C195" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="D194" s="4" t="n">
+      <c r="D195" s="4" t="n">
         <v>0.84</v>
       </c>
-      <c r="E194" s="4" t="n">
+      <c r="E195" s="4" t="n">
         <v>19.5</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="195">
-      <c r="A195" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B195" s="4" t="n">
-        <v>60</v>
-      </c>
-      <c r="C195" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="D195" s="4" t="n">
-        <v>0.831</v>
-      </c>
-      <c r="E195" s="4" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="196">
+    <row r="196" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B196" s="4" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="C196" s="4" t="n">
-        <v>30</v>
+        <v>0.46</v>
       </c>
       <c r="D196" s="4" t="n">
-        <v>0.95</v>
+        <v>0.831</v>
       </c>
       <c r="E196" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="197">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
         <v>94</v>
       </c>
@@ -3821,257 +3825,274 @@
         <v>20</v>
       </c>
       <c r="C197" s="4" t="n">
-        <v>0.96</v>
+        <v>30</v>
       </c>
       <c r="D197" s="4" t="n">
-        <v>1.463</v>
+        <v>0.95</v>
       </c>
       <c r="E197" s="4" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="4" t="s">
         <v>95</v>
       </c>
       <c r="B198" s="4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C198" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D198" s="4" t="n">
+        <v>1.463</v>
+      </c>
+      <c r="E198" s="4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B199" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" s="4" t="n">
         <v>1.788</v>
-      </c>
-      <c r="D198" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" s="4" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="199">
-      <c r="A199" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B199" s="4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C199" s="4" t="n">
-        <v>1.307</v>
       </c>
       <c r="D199" s="4" t="n">
         <v>1</v>
       </c>
       <c r="E199" s="4" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B200" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C200" s="4" t="n">
+        <v>1.307</v>
+      </c>
+      <c r="D200" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E200" s="4" t="n">
         <v>1.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="200">
-      <c r="A200" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B200" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="C200" s="4" t="n">
+    <row r="201" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A201" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B201" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C201" s="4" t="n">
         <v>1.002</v>
       </c>
-      <c r="D200" s="4" t="n">
+      <c r="D201" s="4" t="n">
         <v>0.998</v>
       </c>
-      <c r="E200" s="4" t="n">
+      <c r="E201" s="4" t="n">
         <v>2.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="201">
-      <c r="A201" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B201" s="4" t="n">
+    <row r="202" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A202" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B202" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="C201" s="4" t="n">
+      <c r="C202" s="4" t="n">
         <v>0.802</v>
       </c>
-      <c r="D201" s="4" t="n">
+      <c r="D202" s="4" t="n">
         <v>0.996</v>
       </c>
-      <c r="E201" s="4" t="n">
+      <c r="E202" s="4" t="n">
         <v>4.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="202">
-      <c r="A202" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B202" s="4" t="n">
+    <row r="203" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A203" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B203" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="C202" s="4" t="n">
+      <c r="C203" s="4" t="n">
         <v>0.662</v>
       </c>
-      <c r="D202" s="4" t="n">
+      <c r="D203" s="4" t="n">
         <v>0.992</v>
       </c>
-      <c r="E202" s="4" t="n">
+      <c r="E203" s="4" t="n">
         <v>7.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="203">
-      <c r="A203" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B203" s="4" t="n">
+    <row r="204" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A204" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B204" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="C203" s="4" t="n">
+      <c r="C204" s="4" t="n">
         <v>0.555</v>
       </c>
-      <c r="D203" s="4" t="n">
+      <c r="D204" s="4" t="n">
         <v>0.988</v>
       </c>
-      <c r="E203" s="4" t="n">
+      <c r="E204" s="4" t="n">
         <v>12.3</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="204">
-      <c r="A204" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B204" s="4" t="n">
+    <row r="205" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A205" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B205" s="4" t="n">
         <v>60</v>
       </c>
-      <c r="C204" s="4" t="n">
+      <c r="C205" s="4" t="n">
         <v>0.475</v>
       </c>
-      <c r="D204" s="4" t="n">
+      <c r="D205" s="4" t="n">
         <v>0.983</v>
       </c>
-      <c r="E204" s="4" t="n">
+      <c r="E205" s="4" t="n">
         <v>19.9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="205">
-      <c r="A205" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B205" s="4" t="n">
+    <row r="206" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A206" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B206" s="4" t="n">
         <v>70</v>
       </c>
-      <c r="C205" s="4" t="n">
+      <c r="C206" s="4" t="n">
         <v>0.414</v>
       </c>
-      <c r="D205" s="4" t="n">
+      <c r="D206" s="4" t="n">
         <v>0.978</v>
       </c>
-      <c r="E205" s="4" t="n">
+      <c r="E206" s="4" t="n">
         <v>31.2</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="206">
-      <c r="A206" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B206" s="4" t="n">
+    <row r="207" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A207" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B207" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="C206" s="4" t="n">
+      <c r="C207" s="4" t="n">
         <v>0.365</v>
       </c>
-      <c r="D206" s="4" t="n">
+      <c r="D207" s="4" t="n">
         <v>0.972</v>
       </c>
-      <c r="E206" s="4" t="n">
+      <c r="E207" s="4" t="n">
         <v>47.4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="207">
-      <c r="A207" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B207" s="4" t="n">
+    <row r="208" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A208" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B208" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="C207" s="4" t="n">
+      <c r="C208" s="4" t="n">
         <v>0.327</v>
       </c>
-      <c r="D207" s="4" t="n">
+      <c r="D208" s="4" t="n">
         <v>0.965</v>
       </c>
-      <c r="E207" s="4" t="n">
+      <c r="E208" s="4" t="n">
         <v>70.1</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="208">
-      <c r="A208" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B208" s="4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C208" s="4" t="n">
-        <v>0.295</v>
-      </c>
-      <c r="D208" s="4" t="n">
-        <v>0.958</v>
-      </c>
-      <c r="E208" s="4" t="n">
-        <v>101.3</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="209">
+    <row r="209" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
         <v>96</v>
       </c>
       <c r="B209" s="4" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="C209" s="4" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="D209" s="4" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="E209" s="4" t="n">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A210" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B210" s="4" t="n">
+        <v>20</v>
+      </c>
+      <c r="C210" s="4" t="n">
         <v>0.93</v>
       </c>
-      <c r="D209" s="4" t="n">
+      <c r="D210" s="4" t="n">
         <v>0.864</v>
       </c>
-      <c r="E209" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="210">
-      <c r="A210" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B210" s="4" t="n">
+      <c r="E210" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A211" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B211" s="4" t="n">
         <v>30</v>
       </c>
-      <c r="C210" s="4" t="n">
+      <c r="C211" s="4" t="n">
         <v>0.83</v>
       </c>
-      <c r="D210" s="4" t="n">
+      <c r="D211" s="4" t="n">
         <v>0.855</v>
       </c>
-      <c r="E210" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.1" outlineLevel="0" r="211">
-      <c r="A211" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B211" s="4" t="n">
+      <c r="E211" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A212" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B212" s="4" t="n">
         <v>40</v>
       </c>
-      <c r="C211" s="4" t="n">
+      <c r="C212" s="4" t="n">
         <v>0.74</v>
       </c>
-      <c r="D211" s="4" t="n">
+      <c r="D212" s="4" t="n">
         <v>0.847</v>
       </c>
-      <c r="E211" s="4" t="n">
+      <c r="E212" s="4" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="landscape" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4082,12 +4103,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4097,7 +4119,7 @@
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4108,12 +4130,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4123,7 +4146,7 @@
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
